--- a/Teleskop-Kamera-Effizienz.xlsx
+++ b/Teleskop-Kamera-Effizienz.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WFS\AG-Astro-Praxis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A759144-4B42-484C-8B30-864B2E070356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB32BBC-2273-436B-933D-8C030269C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="0" windowWidth="27525" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Effizienz" sheetId="1" r:id="rId1"/>
+    <sheet name="75er RC WFS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,8 +24,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matthias Kiehl</author>
+  </authors>
+  <commentList>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{7AE6C559-F01D-46EB-93B5-6BB186F784D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Kiehl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Der optimale Abbildungsmaßstab: 0,66-2,00 (grün)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U37" authorId="0" shapeId="0" xr:uid="{1C4C1AAA-D003-48F6-9ED9-9A4D294B3357}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Kiehl:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Best Perfomer ist ein Newton 250/1000 mit Pixelgröße 3,75
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>Teleskop</t>
   </si>
@@ -133,13 +193,73 @@
   </si>
   <si>
     <t>Optik-Fläche</t>
+  </si>
+  <si>
+    <t>Die Tabelle zeigt die Abhängigkeiten von  Teleskop-Größen, Pixelgröße und Binning  auf die Effizenz (was hinten rauskommt) eines Teleskops am Beispiel des 75cm-RCs der WFS und anderen Teleskopen zum Vergleich</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ergebnis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: der 75cm RC bringt mit der gleichen Kamera und gleichem Binning,  Zelle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , etwa soviel wie ein 30cm RC mit der gleichen Kamera und Binning, Zelle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U30.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +288,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -237,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,6 +402,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,285 +754,122 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>750</v>
-      </c>
-      <c r="C3">
-        <v>5600</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>6248</v>
-      </c>
-      <c r="J3">
-        <v>4176</v>
-      </c>
-      <c r="K3">
-        <v>3.75</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M3">
-        <f>ROUND(3.14*(B3/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N3">
-        <f>ROUND(3.14*(B3*E3/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O3">
-        <f>ROUND(SQRT((M3-N3)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P3">
-        <f>ROUND(C3/B3,2)</f>
-        <v>7.47</v>
-      </c>
-      <c r="Q3" s="3">
-        <f>ROUND(K3/(C3/206),2)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R3" s="3">
-        <f>2*Q3</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S3" s="6">
-        <f>3*Q3</f>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="T3" s="6">
-        <f>4*Q3</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="U3" s="15">
-        <f>ROUND(O3^2*Q3^2*L3,1)</f>
-        <v>6614.6</v>
-      </c>
-      <c r="V3" s="7">
-        <f>ROUND(O3^2*R3^2*L3,1)</f>
-        <v>26458.400000000001</v>
-      </c>
-      <c r="W3" s="7">
-        <f>ROUND(O3^2*S3^2*L3,1)</f>
-        <v>59531.5</v>
-      </c>
-      <c r="X3" s="7">
-        <f>ROUND(O3^2*T3^2*L3,1)</f>
-        <v>105833.8</v>
-      </c>
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>750</v>
-      </c>
-      <c r="C4">
-        <f>C3*D4</f>
-        <v>3752</v>
-      </c>
-      <c r="D4">
-        <v>0.67</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>6248</v>
-      </c>
-      <c r="J4">
-        <v>4176</v>
-      </c>
-      <c r="K4">
-        <v>3.75</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M4">
-        <f>ROUND(3.14*(B4/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N4">
-        <f>ROUND(3.14*(B4*E4/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O6" si="0">ROUND(SQRT((M4-N4)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P4">
-        <f>ROUND(C4/B4,2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q6" si="1">ROUND(K4/(C4/206),2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" ref="R4:R6" si="2">2*Q4</f>
-        <v>0.42</v>
-      </c>
-      <c r="S4" s="14">
-        <f t="shared" ref="S4:S6" si="3">3*Q4</f>
-        <v>0.63</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" ref="T4:T6" si="4">4*Q4</f>
-        <v>0.84</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" ref="U4:U6" si="5">ROUND(O4^2*Q4^2*L4,1)</f>
-        <v>14882.9</v>
-      </c>
-      <c r="V4" s="7">
-        <f t="shared" ref="V4:V6" si="6">ROUND(O4^2*R4^2*L4,1)</f>
-        <v>59531.5</v>
-      </c>
-      <c r="W4" s="8">
-        <f t="shared" ref="W4:W6" si="7">ROUND(O4^2*S4^2*L4,1)</f>
-        <v>133945.9</v>
-      </c>
-      <c r="X4" s="8">
-        <f t="shared" ref="X4:X6" si="8">ROUND(O4^2*T4^2*L4,1)</f>
-        <v>238126</v>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -894,11 +880,10 @@
         <v>750</v>
       </c>
       <c r="C5">
-        <f>C3*D5</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0.5</v>
@@ -933,44 +918,44 @@
         <v>110390.6</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f>ROUND(SQRT((M5-N5)/3.14)*2,1)</f>
         <v>649.5</v>
       </c>
       <c r="P5">
         <f>ROUND(C5/B5,2)</f>
-        <v>3.73</v>
+        <v>7.47</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND(K5/(C5/206),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <f>2*Q5</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="R5" s="6">
-        <f t="shared" si="2"/>
+      <c r="S5" s="6">
+        <f>3*Q5</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="T5" s="6">
+        <f>4*Q5</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="S5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="4"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="5"/>
+      <c r="U5" s="15">
+        <f>ROUND(O5^2*Q5^2*L5,1)</f>
+        <v>6614.6</v>
+      </c>
+      <c r="V5" s="7">
+        <f>ROUND(O5^2*R5^2*L5,1)</f>
         <v>26458.400000000001</v>
       </c>
-      <c r="V5" s="7">
-        <f t="shared" si="6"/>
+      <c r="W5" s="7">
+        <f>ROUND(O5^2*S5^2*L5,1)</f>
+        <v>59531.5</v>
+      </c>
+      <c r="X5" s="7">
+        <f>ROUND(O5^2*T5^2*L5,1)</f>
         <v>105833.8</v>
-      </c>
-      <c r="W5" s="8">
-        <f t="shared" si="7"/>
-        <v>238126</v>
-      </c>
-      <c r="X5" s="8">
-        <f t="shared" si="8"/>
-        <v>423335.2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -981,11 +966,11 @@
         <v>750</v>
       </c>
       <c r="C6">
-        <f>C3*D6</f>
-        <v>1848</v>
+        <f>C5*D6</f>
+        <v>3752</v>
       </c>
       <c r="D6">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
@@ -1020,44 +1005,131 @@
         <v>110390.6</v>
       </c>
       <c r="O6">
+        <f t="shared" ref="O6:O8" si="0">ROUND(SQRT((M6-N6)/3.14)*2,1)</f>
+        <v>649.5</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(C6/B6,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q8" si="1">ROUND(K6/(C6/206),2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" ref="R6:R8" si="2">2*Q6</f>
+        <v>0.42</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" ref="S6:S8" si="3">3*Q6</f>
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" ref="T6:T8" si="4">4*Q6</f>
+        <v>0.84</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" ref="U6:U8" si="5">ROUND(O6^2*Q6^2*L6,1)</f>
+        <v>14882.9</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" ref="V6:V8" si="6">ROUND(O6^2*R6^2*L6,1)</f>
+        <v>59531.5</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6:W8" si="7">ROUND(O6^2*S6^2*L6,1)</f>
+        <v>133945.9</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6:X8" si="8">ROUND(O6^2*T6^2*L6,1)</f>
+        <v>238126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>750</v>
+      </c>
+      <c r="C7">
+        <f>C5*D7</f>
+        <v>2800</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>6248</v>
+      </c>
+      <c r="J7">
+        <v>4176</v>
+      </c>
+      <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M7">
+        <f>ROUND(3.14*(B7/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N7">
+        <f>ROUND(3.14*(B7*E7/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>649.5</v>
       </c>
-      <c r="P6">
-        <f>ROUND(C6/B6,2)</f>
-        <v>2.46</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="P7">
+        <f>ROUND(C7/B7,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q7" s="3">
         <f t="shared" si="1"/>
-        <v>0.42</v>
-      </c>
-      <c r="R6" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>0.84</v>
-      </c>
-      <c r="S6" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S7" s="5">
         <f t="shared" si="3"/>
-        <v>1.26</v>
-      </c>
-      <c r="T6" s="4">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="4"/>
-        <v>1.68</v>
-      </c>
-      <c r="U6" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U7" s="7">
         <f t="shared" si="5"/>
-        <v>59531.5</v>
-      </c>
-      <c r="V6" s="8">
+        <v>26458.400000000001</v>
+      </c>
+      <c r="V7" s="7">
         <f t="shared" si="6"/>
+        <v>105833.8</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="7"/>
         <v>238126</v>
       </c>
-      <c r="W6" s="8">
-        <f t="shared" si="7"/>
-        <v>535783.6</v>
-      </c>
-      <c r="X6" s="8">
+      <c r="X7" s="8">
         <f t="shared" si="8"/>
-        <v>952504.1</v>
+        <v>423335.2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1068,34 +1140,35 @@
         <v>750</v>
       </c>
       <c r="C8">
-        <v>5600</v>
+        <f>C5*D8</f>
+        <v>1848</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E8" s="2">
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>4122</v>
+        <v>6248</v>
       </c>
       <c r="J8">
-        <v>2822</v>
+        <v>4176</v>
       </c>
       <c r="K8">
-        <v>4.63</v>
+        <v>3.75</v>
       </c>
       <c r="L8" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="M8">
         <f>ROUND(3.14*(B8/2)^2,1)</f>
@@ -1106,131 +1179,44 @@
         <v>110390.6</v>
       </c>
       <c r="O8">
-        <f>ROUND(SQRT((M8-N8)/3.14)*2,1)</f>
+        <f t="shared" si="0"/>
         <v>649.5</v>
       </c>
       <c r="P8">
         <f>ROUND(C8/B8,2)</f>
-        <v>7.47</v>
-      </c>
-      <c r="Q8" s="3">
-        <f>ROUND(K8/(C8/206),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="R8" s="3">
-        <f>2*Q8</f>
-        <v>0.34</v>
-      </c>
-      <c r="S8" s="6">
-        <f>3*Q8</f>
-        <v>0.51</v>
+        <v>2.46</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="3"/>
+        <v>1.26</v>
       </c>
       <c r="T8" s="4">
-        <f>4*Q8</f>
-        <v>0.68</v>
+        <f t="shared" si="4"/>
+        <v>1.68</v>
       </c>
       <c r="U8" s="7">
-        <f>ROUND(O8^2*Q8^2*L8,1)</f>
-        <v>9143.6</v>
-      </c>
-      <c r="V8" s="7">
-        <f>ROUND(O8^2*R8^2*L8,1)</f>
-        <v>36574.400000000001</v>
-      </c>
-      <c r="W8" s="7">
-        <f>ROUND(O8^2*S8^2*L8,1)</f>
-        <v>82292.399999999994</v>
+        <f t="shared" si="5"/>
+        <v>59531.5</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="6"/>
+        <v>238126</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" si="7"/>
+        <v>535783.6</v>
       </c>
       <c r="X8" s="8">
-        <f>ROUND(O8^2*T8^2*L8,1)</f>
-        <v>146297.70000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>750</v>
-      </c>
-      <c r="C9">
-        <f>C8*D9</f>
-        <v>3752</v>
-      </c>
-      <c r="D9">
-        <v>0.67</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>4122</v>
-      </c>
-      <c r="J9">
-        <v>2822</v>
-      </c>
-      <c r="K9">
-        <v>4.63</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="M9">
-        <f>ROUND(3.14*(B9/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N9">
-        <f>ROUND(3.14*(B9*E9/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ref="O9:O11" si="9">ROUND(SQRT((M9-N9)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P9">
-        <f>ROUND(C9/B9,2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q11" si="10">ROUND(K9/(C9/206),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" ref="R9:R11" si="11">2*Q9</f>
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" ref="S9:S11" si="12">3*Q9</f>
-        <v>0.75</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" ref="T9:T11" si="13">4*Q9</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="7">
-        <f t="shared" ref="U9:U11" si="14">ROUND(O9^2*Q9^2*L9,1)</f>
-        <v>19774.2</v>
-      </c>
-      <c r="V9" s="7">
-        <f t="shared" ref="V9:V11" si="15">ROUND(O9^2*R9^2*L9,1)</f>
-        <v>79096.899999999994</v>
-      </c>
-      <c r="W9" s="8">
-        <f t="shared" ref="W9:W11" si="16">ROUND(O9^2*S9^2*L9,1)</f>
-        <v>177968.1</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" ref="X9:X11" si="17">ROUND(O9^2*T9^2*L9,1)</f>
-        <v>316387.7</v>
+        <f t="shared" si="8"/>
+        <v>952504.1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1241,11 +1227,10 @@
         <v>750</v>
       </c>
       <c r="C10">
-        <f>C8*D10</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>0.5</v>
@@ -1280,44 +1265,44 @@
         <v>110390.6</v>
       </c>
       <c r="O10">
-        <f t="shared" si="9"/>
+        <f>ROUND(SQRT((M10-N10)/3.14)*2,1)</f>
         <v>649.5</v>
       </c>
       <c r="P10">
         <f>ROUND(C10/B10,2)</f>
-        <v>3.73</v>
+        <v>7.47</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="10"/>
+        <f>ROUND(K10/(C10/206),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="R10" s="3">
+        <f>2*Q10</f>
         <v>0.34</v>
       </c>
-      <c r="R10" s="4">
-        <f t="shared" si="11"/>
+      <c r="S10" s="6">
+        <f>3*Q10</f>
+        <v>0.51</v>
+      </c>
+      <c r="T10" s="4">
+        <f>4*Q10</f>
         <v>0.68</v>
       </c>
-      <c r="S10" s="5">
-        <f t="shared" si="12"/>
-        <v>1.02</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="13"/>
-        <v>1.36</v>
-      </c>
       <c r="U10" s="7">
-        <f t="shared" si="14"/>
+        <f>ROUND(O10^2*Q10^2*L10,1)</f>
+        <v>9143.6</v>
+      </c>
+      <c r="V10" s="7">
+        <f>ROUND(O10^2*R10^2*L10,1)</f>
         <v>36574.400000000001</v>
       </c>
-      <c r="V10" s="8">
-        <f t="shared" si="15"/>
+      <c r="W10" s="7">
+        <f>ROUND(O10^2*S10^2*L10,1)</f>
+        <v>82292.399999999994</v>
+      </c>
+      <c r="X10" s="8">
+        <f>ROUND(O10^2*T10^2*L10,1)</f>
         <v>146297.70000000001</v>
-      </c>
-      <c r="W10" s="8">
-        <f t="shared" si="16"/>
-        <v>329169.8</v>
-      </c>
-      <c r="X10" s="8">
-        <f t="shared" si="17"/>
-        <v>585190.69999999995</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1328,11 +1313,11 @@
         <v>750</v>
       </c>
       <c r="C11">
-        <f>C8*D11</f>
-        <v>1848</v>
+        <f>C10*D11</f>
+        <v>3752</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E11" s="2">
         <v>0.5</v>
@@ -1367,44 +1352,131 @@
         <v>110390.6</v>
       </c>
       <c r="O11">
+        <f t="shared" ref="O11:O13" si="9">ROUND(SQRT((M11-N11)/3.14)*2,1)</f>
+        <v>649.5</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(C11/B11,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" ref="Q11:Q13" si="10">ROUND(K11/(C11/206),2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" ref="R11:R13" si="11">2*Q11</f>
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" ref="S11:S13" si="12">3*Q11</f>
+        <v>0.75</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" ref="T11:T13" si="13">4*Q11</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" ref="U11:U13" si="14">ROUND(O11^2*Q11^2*L11,1)</f>
+        <v>19774.2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" ref="V11:V13" si="15">ROUND(O11^2*R11^2*L11,1)</f>
+        <v>79096.899999999994</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" ref="W11:W13" si="16">ROUND(O11^2*S11^2*L11,1)</f>
+        <v>177968.1</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" ref="X11:X13" si="17">ROUND(O11^2*T11^2*L11,1)</f>
+        <v>316387.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>750</v>
+      </c>
+      <c r="C12">
+        <f>C10*D12</f>
+        <v>2800</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>4122</v>
+      </c>
+      <c r="J12">
+        <v>2822</v>
+      </c>
+      <c r="K12">
+        <v>4.63</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <f>ROUND(3.14*(B12/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N12">
+        <f>ROUND(3.14*(B12*E12/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="9"/>
         <v>649.5</v>
       </c>
-      <c r="P11">
-        <f>ROUND(C11/B11,2)</f>
-        <v>2.46</v>
-      </c>
-      <c r="Q11" s="6">
+      <c r="P12">
+        <f>ROUND(C12/B12,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q12" s="3">
         <f t="shared" si="10"/>
-        <v>0.52</v>
-      </c>
-      <c r="R11" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="11"/>
-        <v>1.04</v>
-      </c>
-      <c r="S11" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="S12" s="5">
         <f t="shared" si="12"/>
-        <v>1.56</v>
-      </c>
-      <c r="T11" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="13"/>
-        <v>2.08</v>
-      </c>
-      <c r="U11" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="U12" s="7">
         <f t="shared" si="14"/>
-        <v>85551.2</v>
-      </c>
-      <c r="V11" s="8">
+        <v>36574.400000000001</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="15"/>
-        <v>342204.9</v>
-      </c>
-      <c r="W11" s="8">
+        <v>146297.70000000001</v>
+      </c>
+      <c r="W12" s="8">
         <f t="shared" si="16"/>
-        <v>769961.1</v>
-      </c>
-      <c r="X11" s="8">
+        <v>329169.8</v>
+      </c>
+      <c r="X12" s="8">
         <f t="shared" si="17"/>
-        <v>1368819.7</v>
+        <v>585190.69999999995</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1415,34 +1487,35 @@
         <v>750</v>
       </c>
       <c r="C13">
-        <v>5600</v>
+        <f>C10*D13</f>
+        <v>1848</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E13" s="2">
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>4500</v>
+        <v>4122</v>
       </c>
       <c r="J13">
-        <v>3600</v>
+        <v>2822</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>4.63</v>
       </c>
       <c r="L13" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="M13">
         <f>ROUND(3.14*(B13/2)^2,1)</f>
@@ -1453,131 +1526,44 @@
         <v>110390.6</v>
       </c>
       <c r="O13">
-        <f>ROUND(SQRT((M13-N13)/3.14)*2,1)</f>
+        <f t="shared" si="9"/>
         <v>649.5</v>
       </c>
       <c r="P13">
         <f>ROUND(C13/B13,2)</f>
-        <v>7.47</v>
-      </c>
-      <c r="Q13" s="3">
-        <f>ROUND(K13/(C13/206),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="R13" s="6">
-        <f>2*Q13</f>
-        <v>0.44</v>
-      </c>
-      <c r="S13" s="4">
-        <f>3*Q13</f>
-        <v>0.66</v>
-      </c>
-      <c r="T13" s="4">
-        <f>4*Q13</f>
-        <v>0.88</v>
+        <v>2.46</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="10"/>
+        <v>0.52</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="11"/>
+        <v>1.04</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="12"/>
+        <v>1.56</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="13"/>
+        <v>2.08</v>
       </c>
       <c r="U13" s="7">
-        <f>ROUND(O13^2*Q13^2*L13,1)</f>
-        <v>14292.3</v>
-      </c>
-      <c r="V13" s="7">
-        <f>ROUND(O13^2*R13^2*L13,1)</f>
-        <v>57169.1</v>
+        <f t="shared" si="14"/>
+        <v>85551.2</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="15"/>
+        <v>342204.9</v>
       </c>
       <c r="W13" s="8">
-        <f>ROUND(O13^2*S13^2*L13,1)</f>
-        <v>128630.6</v>
+        <f t="shared" si="16"/>
+        <v>769961.1</v>
       </c>
       <c r="X13" s="8">
-        <f>ROUND(O13^2*T13^2*L13,1)</f>
-        <v>228676.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>750</v>
-      </c>
-      <c r="C14">
-        <f>C13*D14</f>
-        <v>3752</v>
-      </c>
-      <c r="D14">
-        <v>0.67</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>4500</v>
-      </c>
-      <c r="J14">
-        <v>3600</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="M14">
-        <f>ROUND(3.14*(B14/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N14">
-        <f>ROUND(3.14*(B14*E14/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O16" si="18">ROUND(SQRT((M14-N14)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P14">
-        <f>ROUND(C14/B14,2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" ref="Q14:Q16" si="19">ROUND(K14/(C14/206),2)</f>
-        <v>0.33</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" ref="R14:R16" si="20">2*Q14</f>
-        <v>0.66</v>
-      </c>
-      <c r="S14" s="5">
-        <f t="shared" ref="S14:S16" si="21">3*Q14</f>
-        <v>0.99</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" ref="T14:T16" si="22">4*Q14</f>
-        <v>1.32</v>
-      </c>
-      <c r="U14" s="7">
-        <f t="shared" ref="U14:U16" si="23">ROUND(O14^2*Q14^2*L14,1)</f>
-        <v>32157.599999999999</v>
-      </c>
-      <c r="V14" s="8">
-        <f t="shared" ref="V14:V16" si="24">ROUND(O14^2*R14^2*L14,1)</f>
-        <v>128630.6</v>
-      </c>
-      <c r="W14" s="8">
-        <f t="shared" ref="W14:W16" si="25">ROUND(O14^2*S14^2*L14,1)</f>
-        <v>289418.8</v>
-      </c>
-      <c r="X14" s="8">
-        <f t="shared" ref="X14:X16" si="26">ROUND(O14^2*T14^2*L14,1)</f>
-        <v>514522.3</v>
+        <f t="shared" si="17"/>
+        <v>1368819.7</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1588,11 +1574,10 @@
         <v>750</v>
       </c>
       <c r="C15">
-        <f>C13*D15</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>0.5</v>
@@ -1627,44 +1612,44 @@
         <v>110390.6</v>
       </c>
       <c r="O15">
-        <f t="shared" si="18"/>
+        <f>ROUND(SQRT((M15-N15)/3.14)*2,1)</f>
         <v>649.5</v>
       </c>
       <c r="P15">
         <f>ROUND(C15/B15,2)</f>
-        <v>3.73</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="19"/>
+        <v>7.47</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>ROUND(K15/(C15/206),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="R15" s="6">
+        <f>2*Q15</f>
         <v>0.44</v>
       </c>
-      <c r="R15" s="4">
-        <f t="shared" si="20"/>
+      <c r="S15" s="4">
+        <f>3*Q15</f>
+        <v>0.66</v>
+      </c>
+      <c r="T15" s="4">
+        <f>4*Q15</f>
         <v>0.88</v>
       </c>
-      <c r="S15" s="5">
-        <f t="shared" si="21"/>
-        <v>1.32</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="22"/>
-        <v>1.76</v>
-      </c>
       <c r="U15" s="7">
-        <f t="shared" si="23"/>
+        <f>ROUND(O15^2*Q15^2*L15,1)</f>
+        <v>14292.3</v>
+      </c>
+      <c r="V15" s="7">
+        <f>ROUND(O15^2*R15^2*L15,1)</f>
         <v>57169.1</v>
       </c>
-      <c r="V15" s="8">
-        <f t="shared" si="24"/>
+      <c r="W15" s="8">
+        <f>ROUND(O15^2*S15^2*L15,1)</f>
+        <v>128630.6</v>
+      </c>
+      <c r="X15" s="8">
+        <f>ROUND(O15^2*T15^2*L15,1)</f>
         <v>228676.6</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" si="25"/>
-        <v>514522.3</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" si="26"/>
-        <v>914706.3</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1675,11 +1660,11 @@
         <v>750</v>
       </c>
       <c r="C16">
-        <f>C13*D16</f>
-        <v>1848</v>
+        <f>C15*D16</f>
+        <v>3752</v>
       </c>
       <c r="D16">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E16" s="2">
         <v>0.5</v>
@@ -1714,44 +1699,131 @@
         <v>110390.6</v>
       </c>
       <c r="O16">
+        <f t="shared" ref="O16:O18" si="18">ROUND(SQRT((M16-N16)/3.14)*2,1)</f>
+        <v>649.5</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(C16/B16,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16:Q18" si="19">ROUND(K16/(C16/206),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" ref="R16:R18" si="20">2*Q16</f>
+        <v>0.66</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" ref="S16:S18" si="21">3*Q16</f>
+        <v>0.99</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16:T18" si="22">4*Q16</f>
+        <v>1.32</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" ref="U16:U18" si="23">ROUND(O16^2*Q16^2*L16,1)</f>
+        <v>32157.599999999999</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16:V18" si="24">ROUND(O16^2*R16^2*L16,1)</f>
+        <v>128630.6</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" ref="W16:W18" si="25">ROUND(O16^2*S16^2*L16,1)</f>
+        <v>289418.8</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16:X18" si="26">ROUND(O16^2*T16^2*L16,1)</f>
+        <v>514522.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>750</v>
+      </c>
+      <c r="C17">
+        <f>C15*D17</f>
+        <v>2800</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>4500</v>
+      </c>
+      <c r="J17">
+        <v>3600</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M17">
+        <f>ROUND(3.14*(B17/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N17">
+        <f>ROUND(3.14*(B17*E17/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="18"/>
         <v>649.5</v>
       </c>
-      <c r="P16">
-        <f>ROUND(C16/B16,2)</f>
-        <v>2.46</v>
-      </c>
-      <c r="Q16" s="6">
+      <c r="P17">
+        <f>ROUND(C17/B17,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="19"/>
-        <v>0.67</v>
-      </c>
-      <c r="R16" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="20"/>
-        <v>1.34</v>
-      </c>
-      <c r="S16" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="21"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="T16" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="22"/>
-        <v>2.68</v>
-      </c>
-      <c r="U16" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="U17" s="7">
         <f t="shared" si="23"/>
-        <v>132558</v>
-      </c>
-      <c r="V16" s="8">
+        <v>57169.1</v>
+      </c>
+      <c r="V17" s="8">
         <f t="shared" si="24"/>
-        <v>530232</v>
-      </c>
-      <c r="W16" s="7">
+        <v>228676.6</v>
+      </c>
+      <c r="W17" s="8">
         <f t="shared" si="25"/>
-        <v>1193022</v>
-      </c>
-      <c r="X16" s="7">
+        <v>514522.3</v>
+      </c>
+      <c r="X17" s="8">
         <f t="shared" si="26"/>
-        <v>2120928.1</v>
+        <v>914706.3</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1762,34 +1834,35 @@
         <v>750</v>
       </c>
       <c r="C18">
-        <v>5600</v>
+        <f>C15*D18</f>
+        <v>1848</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E18" s="2">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>4096</v>
+        <v>4500</v>
       </c>
       <c r="J18">
-        <v>4096</v>
+        <v>3600</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L18" s="2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="M18">
         <f>ROUND(3.14*(B18/2)^2,1)</f>
@@ -1800,131 +1873,44 @@
         <v>110390.6</v>
       </c>
       <c r="O18">
-        <f>ROUND(SQRT((M18-N18)/3.14)*2,1)</f>
+        <f t="shared" si="18"/>
         <v>649.5</v>
       </c>
       <c r="P18">
         <f>ROUND(C18/B18,2)</f>
-        <v>7.47</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>ROUND(K18/(C18/206),2)</f>
-        <v>0.33</v>
+        <v>2.46</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="19"/>
+        <v>0.67</v>
       </c>
       <c r="R18" s="4">
-        <f>2*Q18</f>
-        <v>0.66</v>
-      </c>
-      <c r="S18" s="4">
-        <f>3*Q18</f>
-        <v>0.99</v>
-      </c>
-      <c r="T18" s="4">
-        <f>4*Q18</f>
-        <v>1.32</v>
+        <f t="shared" si="20"/>
+        <v>1.34</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="21"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="22"/>
+        <v>2.68</v>
       </c>
       <c r="U18" s="7">
-        <f>ROUND(O18^2*Q18^2*L18,1)</f>
-        <v>41345.5</v>
+        <f t="shared" si="23"/>
+        <v>132558</v>
       </c>
       <c r="V18" s="8">
-        <f>ROUND(O18^2*R18^2*L18,1)</f>
-        <v>165382.20000000001</v>
-      </c>
-      <c r="W18" s="8">
-        <f>ROUND(O18^2*S18^2*L18,1)</f>
-        <v>372109.9</v>
-      </c>
-      <c r="X18" s="8">
-        <f>ROUND(O18^2*T18^2*L18,1)</f>
-        <v>661528.69999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>750</v>
-      </c>
-      <c r="C19">
-        <f>C18*D19</f>
-        <v>3752</v>
-      </c>
-      <c r="D19">
-        <v>0.67</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>4096</v>
-      </c>
-      <c r="J19">
-        <v>4096</v>
-      </c>
-      <c r="K19">
-        <v>9</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M19">
-        <f>ROUND(3.14*(B19/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N19">
-        <f>ROUND(3.14*(B19*E19/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O21" si="27">ROUND(SQRT((M19-N19)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P19">
-        <f>ROUND(C19/B19,2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" ref="Q19:Q21" si="28">ROUND(K19/(C19/206),2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" ref="R19:R21" si="29">2*Q19</f>
-        <v>0.98</v>
-      </c>
-      <c r="S19" s="5">
-        <f t="shared" ref="S19:S21" si="30">3*Q19</f>
-        <v>1.47</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" ref="T19:T21" si="31">4*Q19</f>
-        <v>1.96</v>
-      </c>
-      <c r="U19" s="7">
-        <f t="shared" ref="U19:U21" si="32">ROUND(O19^2*Q19^2*L19,1)</f>
-        <v>91157.6</v>
-      </c>
-      <c r="V19" s="8">
-        <f t="shared" ref="V19:V21" si="33">ROUND(O19^2*R19^2*L19,1)</f>
-        <v>364630.5</v>
-      </c>
-      <c r="W19" s="8">
-        <f t="shared" ref="W19:W21" si="34">ROUND(O19^2*S19^2*L19,1)</f>
-        <v>820418.6</v>
-      </c>
-      <c r="X19" s="8">
-        <f t="shared" ref="X19:X21" si="35">ROUND(O19^2*T19^2*L19,1)</f>
-        <v>1458521.9</v>
+        <f t="shared" si="24"/>
+        <v>530232</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="25"/>
+        <v>1193022</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="26"/>
+        <v>2120928.1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1935,11 +1921,10 @@
         <v>750</v>
       </c>
       <c r="C20">
-        <f>C18*D20</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>0.5</v>
@@ -1974,44 +1959,44 @@
         <v>110390.6</v>
       </c>
       <c r="O20">
-        <f t="shared" si="27"/>
+        <f>ROUND(SQRT((M20-N20)/3.14)*2,1)</f>
         <v>649.5</v>
       </c>
       <c r="P20">
         <f>ROUND(C20/B20,2)</f>
-        <v>3.73</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="28"/>
+        <v>7.47</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>ROUND(K20/(C20/206),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="R20" s="4">
+        <f>2*Q20</f>
         <v>0.66</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="29"/>
+      <c r="S20" s="4">
+        <f>3*Q20</f>
+        <v>0.99</v>
+      </c>
+      <c r="T20" s="4">
+        <f>4*Q20</f>
         <v>1.32</v>
       </c>
-      <c r="S20" s="5">
-        <f t="shared" si="30"/>
-        <v>1.98</v>
-      </c>
-      <c r="T20" s="3">
-        <f t="shared" si="31"/>
-        <v>2.64</v>
-      </c>
-      <c r="U20" s="8">
-        <f t="shared" si="32"/>
+      <c r="U20" s="7">
+        <f>ROUND(O20^2*Q20^2*L20,1)</f>
+        <v>41345.5</v>
+      </c>
+      <c r="V20" s="8">
+        <f>ROUND(O20^2*R20^2*L20,1)</f>
         <v>165382.20000000001</v>
       </c>
-      <c r="V20" s="8">
-        <f t="shared" si="33"/>
+      <c r="W20" s="8">
+        <f>ROUND(O20^2*S20^2*L20,1)</f>
+        <v>372109.9</v>
+      </c>
+      <c r="X20" s="8">
+        <f>ROUND(O20^2*T20^2*L20,1)</f>
         <v>661528.69999999995</v>
-      </c>
-      <c r="W20" s="8">
-        <f t="shared" si="34"/>
-        <v>1488439.5</v>
-      </c>
-      <c r="X20" s="7">
-        <f t="shared" si="35"/>
-        <v>2646114.7999999998</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2022,11 +2007,11 @@
         <v>750</v>
       </c>
       <c r="C21">
-        <f>C18*D21</f>
-        <v>1848</v>
+        <f>C20*D21</f>
+        <v>3752</v>
       </c>
       <c r="D21">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E21" s="2">
         <v>0.5</v>
@@ -2061,44 +2046,131 @@
         <v>110390.6</v>
       </c>
       <c r="O21">
+        <f t="shared" ref="O21:O23" si="27">ROUND(SQRT((M21-N21)/3.14)*2,1)</f>
+        <v>649.5</v>
+      </c>
+      <c r="P21">
+        <f>ROUND(C21/B21,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21:Q23" si="28">ROUND(K21/(C21/206),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21:R23" si="29">2*Q21</f>
+        <v>0.98</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" ref="S21:S23" si="30">3*Q21</f>
+        <v>1.47</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:T23" si="31">4*Q21</f>
+        <v>1.96</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" ref="U21:U23" si="32">ROUND(O21^2*Q21^2*L21,1)</f>
+        <v>91157.6</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" ref="V21:V23" si="33">ROUND(O21^2*R21^2*L21,1)</f>
+        <v>364630.5</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" ref="W21:W23" si="34">ROUND(O21^2*S21^2*L21,1)</f>
+        <v>820418.6</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" ref="X21:X23" si="35">ROUND(O21^2*T21^2*L21,1)</f>
+        <v>1458521.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>750</v>
+      </c>
+      <c r="C22">
+        <f>C20*D22</f>
+        <v>2800</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>4096</v>
+      </c>
+      <c r="J22">
+        <v>4096</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M22">
+        <f>ROUND(3.14*(B22/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N22">
+        <f>ROUND(3.14*(B22*E22/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="27"/>
         <v>649.5</v>
       </c>
-      <c r="P21">
-        <f>ROUND(C21/B21,2)</f>
-        <v>2.46</v>
-      </c>
-      <c r="Q21" s="8">
+      <c r="P22">
+        <f>ROUND(C22/B22,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q22" s="10">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="S21" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="S22" s="5">
         <f t="shared" si="30"/>
-        <v>3</v>
-      </c>
-      <c r="T21" s="12">
+        <v>1.98</v>
+      </c>
+      <c r="T22" s="3">
         <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="U21" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="U22" s="8">
         <f t="shared" si="32"/>
-        <v>379665.2</v>
-      </c>
-      <c r="V21" s="8">
+        <v>165382.20000000001</v>
+      </c>
+      <c r="V22" s="8">
         <f t="shared" si="33"/>
-        <v>1518660.9</v>
-      </c>
-      <c r="W21" s="7">
+        <v>661528.69999999995</v>
+      </c>
+      <c r="W22" s="8">
         <f t="shared" si="34"/>
-        <v>3416987</v>
-      </c>
-      <c r="X21" s="7">
+        <v>1488439.5</v>
+      </c>
+      <c r="X22" s="7">
         <f t="shared" si="35"/>
-        <v>6074643.5999999996</v>
+        <v>2646114.7999999998</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2109,34 +2181,35 @@
         <v>750</v>
       </c>
       <c r="C23">
-        <v>5600</v>
+        <f>C20*D23</f>
+        <v>1848</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E23" s="2">
         <v>0.5</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23">
-        <v>3056</v>
+        <v>4096</v>
       </c>
       <c r="J23">
-        <v>3056</v>
+        <v>4096</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L23" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M23">
         <f>ROUND(3.14*(B23/2)^2,1)</f>
@@ -2147,131 +2220,44 @@
         <v>110390.6</v>
       </c>
       <c r="O23">
-        <f>ROUND(SQRT((M23-N23)/3.14)*2,1)</f>
+        <f t="shared" si="27"/>
         <v>649.5</v>
       </c>
       <c r="P23">
         <f>ROUND(C23/B23,2)</f>
-        <v>7.47</v>
-      </c>
-      <c r="Q23" s="3">
-        <f>ROUND(K23/(C23/206),2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="R23" s="4">
-        <f>2*Q23</f>
-        <v>0.88</v>
-      </c>
-      <c r="S23" s="4">
-        <f>3*Q23</f>
-        <v>1.32</v>
-      </c>
-      <c r="T23" s="4">
-        <f>4*Q23</f>
-        <v>1.76</v>
-      </c>
-      <c r="U23" s="7">
-        <f>ROUND(O23^2*Q23^2*L23,1)</f>
-        <v>57169.1</v>
+        <v>2.46</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="32"/>
+        <v>379665.2</v>
       </c>
       <c r="V23" s="8">
-        <f>ROUND(O23^2*R23^2*L23,1)</f>
-        <v>228676.6</v>
-      </c>
-      <c r="W23" s="8">
-        <f>ROUND(O23^2*S23^2*L23,1)</f>
-        <v>514522.3</v>
-      </c>
-      <c r="X23" s="8">
-        <f>ROUND(O23^2*T23^2*L23,1)</f>
-        <v>914706.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>750</v>
-      </c>
-      <c r="C24">
-        <f>C23*D24</f>
-        <v>3752</v>
-      </c>
-      <c r="D24">
-        <v>0.67</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>3056</v>
-      </c>
-      <c r="J24">
-        <v>3056</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="M24">
-        <f>ROUND(3.14*(B24/2)^2,1)</f>
-        <v>441562.5</v>
-      </c>
-      <c r="N24">
-        <f>ROUND(3.14*(B24*E24/2)^2,1)</f>
-        <v>110390.6</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ref="O24:O26" si="36">ROUND(SQRT((M24-N24)/3.14)*2,1)</f>
-        <v>649.5</v>
-      </c>
-      <c r="P24">
-        <f>ROUND(C24/B24,2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" ref="Q24:Q26" si="37">ROUND(K24/(C24/206),2)</f>
-        <v>0.66</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" ref="R24:R26" si="38">2*Q24</f>
-        <v>1.32</v>
-      </c>
-      <c r="S24" s="5">
-        <f t="shared" ref="S24:S26" si="39">3*Q24</f>
-        <v>1.98</v>
-      </c>
-      <c r="T24" s="3">
-        <f t="shared" ref="T24:T26" si="40">4*Q24</f>
-        <v>2.64</v>
-      </c>
-      <c r="U24" s="8">
-        <f t="shared" ref="U24:U26" si="41">ROUND(O24^2*Q24^2*L24,1)</f>
-        <v>128630.6</v>
-      </c>
-      <c r="V24" s="8">
-        <f t="shared" ref="V24:V26" si="42">ROUND(O24^2*R24^2*L24,1)</f>
-        <v>514522.3</v>
-      </c>
-      <c r="W24" s="8">
-        <f t="shared" ref="W24:W26" si="43">ROUND(O24^2*S24^2*L24,1)</f>
-        <v>1157675.2</v>
-      </c>
-      <c r="X24" s="7">
-        <f t="shared" ref="X24:X26" si="44">ROUND(O24^2*T24^2*L24,1)</f>
-        <v>2058089.3</v>
+        <f t="shared" si="33"/>
+        <v>1518660.9</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="34"/>
+        <v>3416987</v>
+      </c>
+      <c r="X23" s="7">
+        <f t="shared" si="35"/>
+        <v>6074643.5999999996</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2282,11 +2268,10 @@
         <v>750</v>
       </c>
       <c r="C25">
-        <f>C23*D25</f>
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0.5</v>
@@ -2321,44 +2306,44 @@
         <v>110390.6</v>
       </c>
       <c r="O25">
-        <f t="shared" si="36"/>
+        <f>ROUND(SQRT((M25-N25)/3.14)*2,1)</f>
         <v>649.5</v>
       </c>
       <c r="P25">
         <f>ROUND(C25/B25,2)</f>
-        <v>3.73</v>
-      </c>
-      <c r="Q25" s="10">
-        <f t="shared" si="37"/>
+        <v>7.47</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>ROUND(K25/(C25/206),2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="R25" s="4">
+        <f>2*Q25</f>
         <v>0.88</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="38"/>
+      <c r="S25" s="4">
+        <f>3*Q25</f>
+        <v>1.32</v>
+      </c>
+      <c r="T25" s="4">
+        <f>4*Q25</f>
         <v>1.76</v>
       </c>
-      <c r="S25" s="13">
-        <f t="shared" si="39"/>
-        <v>2.64</v>
-      </c>
-      <c r="T25" s="3">
-        <f t="shared" si="40"/>
-        <v>3.52</v>
-      </c>
-      <c r="U25" s="8">
-        <f t="shared" si="41"/>
+      <c r="U25" s="7">
+        <f>ROUND(O25^2*Q25^2*L25,1)</f>
+        <v>57169.1</v>
+      </c>
+      <c r="V25" s="8">
+        <f>ROUND(O25^2*R25^2*L25,1)</f>
         <v>228676.6</v>
       </c>
-      <c r="V25" s="8">
-        <f t="shared" si="42"/>
+      <c r="W25" s="8">
+        <f>ROUND(O25^2*S25^2*L25,1)</f>
+        <v>514522.3</v>
+      </c>
+      <c r="X25" s="8">
+        <f>ROUND(O25^2*T25^2*L25,1)</f>
         <v>914706.3</v>
-      </c>
-      <c r="W25" s="7">
-        <f t="shared" si="43"/>
-        <v>2058089.3</v>
-      </c>
-      <c r="X25" s="7">
-        <f t="shared" si="44"/>
-        <v>3658825.3</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2369,11 +2354,11 @@
         <v>750</v>
       </c>
       <c r="C26">
-        <f>C23*D26</f>
-        <v>1848</v>
+        <f>C25*D26</f>
+        <v>3752</v>
       </c>
       <c r="D26">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E26" s="2">
         <v>0.5</v>
@@ -2408,217 +2393,304 @@
         <v>110390.6</v>
       </c>
       <c r="O26">
+        <f t="shared" ref="O26:O28" si="36">ROUND(SQRT((M26-N26)/3.14)*2,1)</f>
+        <v>649.5</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(C26/B26,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26:Q28" si="37">ROUND(K26/(C26/206),2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" ref="R26:R28" si="38">2*Q26</f>
+        <v>1.32</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" ref="S26:S28" si="39">3*Q26</f>
+        <v>1.98</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" ref="T26:T28" si="40">4*Q26</f>
+        <v>2.64</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" ref="U26:U28" si="41">ROUND(O26^2*Q26^2*L26,1)</f>
+        <v>128630.6</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" ref="V26:V28" si="42">ROUND(O26^2*R26^2*L26,1)</f>
+        <v>514522.3</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" ref="W26:W28" si="43">ROUND(O26^2*S26^2*L26,1)</f>
+        <v>1157675.2</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" ref="X26:X28" si="44">ROUND(O26^2*T26^2*L26,1)</f>
+        <v>2058089.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>750</v>
+      </c>
+      <c r="C27">
+        <f>C25*D27</f>
+        <v>2800</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>3056</v>
+      </c>
+      <c r="J27">
+        <v>3056</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M27">
+        <f>ROUND(3.14*(B27/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N27">
+        <f>ROUND(3.14*(B27*E27/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="36"/>
         <v>649.5</v>
       </c>
-      <c r="P26">
-        <f>ROUND(C26/B26,2)</f>
-        <v>2.46</v>
-      </c>
-      <c r="Q26" s="8">
+      <c r="P27">
+        <f>ROUND(C27/B27,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="37"/>
-        <v>1.34</v>
-      </c>
-      <c r="R26" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="R27" s="4">
         <f t="shared" si="38"/>
-        <v>2.68</v>
-      </c>
-      <c r="S26" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="S27" s="13">
         <f t="shared" si="39"/>
-        <v>4.0200000000000005</v>
-      </c>
-      <c r="T26" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="T27" s="3">
         <f t="shared" si="40"/>
-        <v>5.36</v>
-      </c>
-      <c r="U26" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="U27" s="8">
         <f t="shared" si="41"/>
-        <v>530232</v>
-      </c>
-      <c r="V26" s="7">
+        <v>228676.6</v>
+      </c>
+      <c r="V27" s="8">
         <f t="shared" si="42"/>
-        <v>2120928.1</v>
-      </c>
-      <c r="W26" s="7">
+        <v>914706.3</v>
+      </c>
+      <c r="W27" s="7">
         <f t="shared" si="43"/>
-        <v>4772088.0999999996</v>
-      </c>
-      <c r="X26" s="7">
+        <v>2058089.3</v>
+      </c>
+      <c r="X27" s="7">
         <f t="shared" si="44"/>
-        <v>8483712.3000000007</v>
+        <v>3658825.3</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C28">
-        <v>2400</v>
+        <f>C25*D28</f>
+        <v>1848</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E28" s="2">
         <v>0.5</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>6248</v>
+        <v>3056</v>
       </c>
       <c r="J28">
-        <v>4176</v>
+        <v>3056</v>
       </c>
       <c r="K28">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="L28" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M28">
         <f>ROUND(3.14*(B28/2)^2,1)</f>
-        <v>70650</v>
+        <v>441562.5</v>
       </c>
       <c r="N28">
         <f>ROUND(3.14*(B28*E28/2)^2,1)</f>
-        <v>17662.5</v>
+        <v>110390.6</v>
       </c>
       <c r="O28">
-        <f>ROUND(SQRT((M28-N28)/3.14)*2,1)</f>
-        <v>259.8</v>
+        <f t="shared" si="36"/>
+        <v>649.5</v>
       </c>
       <c r="P28">
         <f>ROUND(C28/B28,2)</f>
+        <v>2.46</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="37"/>
+        <v>1.34</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="38"/>
+        <v>2.68</v>
+      </c>
+      <c r="S28" s="11">
+        <f t="shared" si="39"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" si="40"/>
+        <v>5.36</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="41"/>
+        <v>530232</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="42"/>
+        <v>2120928.1</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="43"/>
+        <v>4772088.0999999996</v>
+      </c>
+      <c r="X28" s="7">
+        <f t="shared" si="44"/>
+        <v>8483712.3000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+      <c r="C30">
+        <v>2400</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>6248</v>
+      </c>
+      <c r="J30">
+        <v>4176</v>
+      </c>
+      <c r="K30">
+        <v>3.75</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M30">
+        <f>ROUND(3.14*(B30/2)^2,1)</f>
+        <v>70650</v>
+      </c>
+      <c r="N30">
+        <f>ROUND(3.14*(B30*E30/2)^2,1)</f>
+        <v>17662.5</v>
+      </c>
+      <c r="O30">
+        <f>ROUND(SQRT((M30-N30)/3.14)*2,1)</f>
+        <v>259.8</v>
+      </c>
+      <c r="P30">
+        <f>ROUND(C30/B30,2)</f>
         <v>8</v>
       </c>
-      <c r="Q28" s="3">
-        <f>ROUND(K28/(C28/206),2)</f>
+      <c r="Q30" s="3">
+        <f>ROUND(K30/(C30/206),2)</f>
         <v>0.32</v>
       </c>
-      <c r="R28" s="4">
-        <f>2*Q28</f>
+      <c r="R30" s="4">
+        <f>2*Q30</f>
         <v>0.64</v>
       </c>
-      <c r="S28" s="4">
-        <f>3*Q28</f>
+      <c r="S30" s="4">
+        <f>3*Q30</f>
         <v>0.96</v>
       </c>
-      <c r="T28" s="4">
-        <f>4*Q28</f>
+      <c r="T30" s="4">
+        <f>4*Q30</f>
         <v>1.28</v>
       </c>
-      <c r="U28" s="15">
-        <f>ROUND(O28^2*Q28^2*L28,1)</f>
+      <c r="U30" s="15">
+        <f>ROUND(O30^2*Q30^2*L30,1)</f>
         <v>5529.3</v>
       </c>
-      <c r="V28" s="8">
-        <f>ROUND(O28^2*R28^2*L28,1)</f>
+      <c r="V30" s="8">
+        <f>ROUND(O30^2*R30^2*L30,1)</f>
         <v>22117.1</v>
       </c>
-      <c r="W28" s="8">
-        <f>ROUND(O28^2*S28^2*L28,1)</f>
+      <c r="W30" s="8">
+        <f>ROUND(O30^2*S30^2*L30,1)</f>
         <v>49763.5</v>
       </c>
-      <c r="X28" s="8">
-        <f>ROUND(O28^2*T28^2*L28,1)</f>
+      <c r="X30" s="8">
+        <f>ROUND(O30^2*T30^2*L30,1)</f>
         <v>88468.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>300</v>
-      </c>
-      <c r="C29">
-        <f>C28*D29</f>
-        <v>1608</v>
-      </c>
-      <c r="D29">
-        <v>0.67</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>6248</v>
-      </c>
-      <c r="J29">
-        <v>4176</v>
-      </c>
-      <c r="K29">
-        <v>3.75</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M29">
-        <f>ROUND(3.14*(B29/2)^2,1)</f>
-        <v>70650</v>
-      </c>
-      <c r="N29">
-        <f>ROUND(3.14*(B29*E29/2)^2,1)</f>
-        <v>17662.5</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ref="O29" si="45">ROUND(SQRT((M29-N29)/3.14)*2,1)</f>
-        <v>259.8</v>
-      </c>
-      <c r="P29">
-        <f>ROUND(C29/B29,2)</f>
-        <v>5.36</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" ref="Q29" si="46">ROUND(K29/(C29/206),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" ref="R29" si="47">2*Q29</f>
-        <v>0.96</v>
-      </c>
-      <c r="S29" s="5">
-        <f t="shared" ref="S29" si="48">3*Q29</f>
-        <v>1.44</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" ref="T29" si="49">4*Q29</f>
-        <v>1.92</v>
-      </c>
-      <c r="U29" s="7">
-        <f t="shared" ref="U29" si="50">ROUND(O29^2*Q29^2*L29,1)</f>
-        <v>12440.9</v>
-      </c>
-      <c r="V29" s="8">
-        <f t="shared" ref="V29" si="51">ROUND(O29^2*R29^2*L29,1)</f>
-        <v>49763.5</v>
-      </c>
-      <c r="W29" s="8">
-        <f t="shared" ref="W29" si="52">ROUND(O29^2*S29^2*L29,1)</f>
-        <v>111967.8</v>
-      </c>
-      <c r="X29" s="7">
-        <f t="shared" ref="X29" si="53">ROUND(O29^2*T29^2*L29,1)</f>
-        <v>199053.9</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2629,34 +2701,35 @@
         <v>300</v>
       </c>
       <c r="C31">
-        <v>2400</v>
+        <f>C30*D31</f>
+        <v>1608</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E31" s="2">
         <v>0.5</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>4122</v>
+        <v>6248</v>
       </c>
       <c r="J31">
-        <v>2822</v>
+        <v>4176</v>
       </c>
       <c r="K31">
-        <v>4.63</v>
+        <v>3.75</v>
       </c>
       <c r="L31" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="M31">
         <f>ROUND(3.14*(B31/2)^2,1)</f>
@@ -2667,311 +2740,311 @@
         <v>17662.5</v>
       </c>
       <c r="O31">
-        <f>ROUND(SQRT((M31-N31)/3.14)*2,1)</f>
+        <f t="shared" ref="O31" si="45">ROUND(SQRT((M31-N31)/3.14)*2,1)</f>
         <v>259.8</v>
       </c>
       <c r="P31">
         <f>ROUND(C31/B31,2)</f>
+        <v>5.36</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" ref="Q31" si="46">ROUND(K31/(C31/206),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" ref="R31" si="47">2*Q31</f>
+        <v>0.96</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" ref="S31" si="48">3*Q31</f>
+        <v>1.44</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" ref="T31" si="49">4*Q31</f>
+        <v>1.92</v>
+      </c>
+      <c r="U31" s="7">
+        <f t="shared" ref="U31" si="50">ROUND(O31^2*Q31^2*L31,1)</f>
+        <v>12440.9</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" ref="V31" si="51">ROUND(O31^2*R31^2*L31,1)</f>
+        <v>49763.5</v>
+      </c>
+      <c r="W31" s="8">
+        <f t="shared" ref="W31" si="52">ROUND(O31^2*S31^2*L31,1)</f>
+        <v>111967.8</v>
+      </c>
+      <c r="X31" s="7">
+        <f t="shared" ref="X31" si="53">ROUND(O31^2*T31^2*L31,1)</f>
+        <v>199053.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <v>2400</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>4122</v>
+      </c>
+      <c r="J33">
+        <v>2822</v>
+      </c>
+      <c r="K33">
+        <v>4.63</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M33">
+        <f>ROUND(3.14*(B33/2)^2,1)</f>
+        <v>70650</v>
+      </c>
+      <c r="N33">
+        <f>ROUND(3.14*(B33*E33/2)^2,1)</f>
+        <v>17662.5</v>
+      </c>
+      <c r="O33">
+        <f>ROUND(SQRT((M33-N33)/3.14)*2,1)</f>
+        <v>259.8</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(C33/B33,2)</f>
         <v>8</v>
       </c>
-      <c r="Q31" s="3">
-        <f>ROUND(K31/(C31/206),2)</f>
+      <c r="Q33" s="3">
+        <f>ROUND(K33/(C33/206),2)</f>
         <v>0.4</v>
       </c>
-      <c r="R31" s="4">
-        <f>2*Q31</f>
+      <c r="R33" s="4">
+        <f>2*Q33</f>
         <v>0.8</v>
       </c>
-      <c r="S31" s="4">
-        <f>3*Q31</f>
+      <c r="S33" s="4">
+        <f>3*Q33</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="T31" s="4">
-        <f>4*Q31</f>
+      <c r="T33" s="4">
+        <f>4*Q33</f>
         <v>1.6</v>
       </c>
-      <c r="U31" s="7">
-        <f>ROUND(O31^2*Q31^2*L31,1)</f>
+      <c r="U33" s="7">
+        <f>ROUND(O33^2*Q33^2*L33,1)</f>
         <v>8099.5</v>
       </c>
-      <c r="V31" s="8">
-        <f>ROUND(O31^2*R31^2*L31,1)</f>
+      <c r="V33" s="8">
+        <f>ROUND(O33^2*R33^2*L33,1)</f>
         <v>32398.1</v>
       </c>
-      <c r="W31" s="8">
-        <f>ROUND(O31^2*S31^2*L31,1)</f>
+      <c r="W33" s="8">
+        <f>ROUND(O33^2*S33^2*L33,1)</f>
         <v>72895.7</v>
       </c>
-      <c r="X31" s="8">
-        <f>ROUND(O31^2*T31^2*L31,1)</f>
+      <c r="X33" s="8">
+        <f>ROUND(O33^2*T33^2*L33,1)</f>
         <v>129592.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>300</v>
-      </c>
-      <c r="C32">
-        <f>C31*D32</f>
-        <v>1608</v>
-      </c>
-      <c r="D32">
-        <v>0.67</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32">
-        <v>14</v>
-      </c>
-      <c r="I32">
-        <v>4122</v>
-      </c>
-      <c r="J32">
-        <v>2822</v>
-      </c>
-      <c r="K32">
-        <v>4.63</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="M32">
-        <f>ROUND(3.14*(B32/2)^2,1)</f>
-        <v>70650</v>
-      </c>
-      <c r="N32">
-        <f>ROUND(3.14*(B32*E32/2)^2,1)</f>
-        <v>17662.5</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ref="O32" si="54">ROUND(SQRT((M32-N32)/3.14)*2,1)</f>
-        <v>259.8</v>
-      </c>
-      <c r="P32">
-        <f>ROUND(C32/B32,2)</f>
-        <v>5.36</v>
-      </c>
-      <c r="Q32" s="6">
-        <f t="shared" ref="Q32" si="55">ROUND(K32/(C32/206),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" ref="R32" si="56">2*Q32</f>
-        <v>1.18</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" ref="S32" si="57">3*Q32</f>
-        <v>1.77</v>
-      </c>
-      <c r="T32" s="3">
-        <f t="shared" ref="T32" si="58">4*Q32</f>
-        <v>2.36</v>
-      </c>
-      <c r="U32" s="7">
-        <f t="shared" ref="U32" si="59">ROUND(O32^2*Q32^2*L32,1)</f>
-        <v>17621.5</v>
-      </c>
-      <c r="V32" s="8">
-        <f t="shared" ref="V32" si="60">ROUND(O32^2*R32^2*L32,1)</f>
-        <v>70486.100000000006</v>
-      </c>
-      <c r="W32" s="8">
-        <f t="shared" ref="W32" si="61">ROUND(O32^2*S32^2*L32,1)</f>
-        <v>158593.79999999999</v>
-      </c>
-      <c r="X32" s="7">
-        <f t="shared" ref="X32" si="62">ROUND(O32^2*T32^2*L32,1)</f>
-        <v>281944.5</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C34">
-        <v>1250</v>
+        <f>C33*D34</f>
+        <v>1608</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E34" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I34">
-        <v>6248</v>
+        <v>4122</v>
       </c>
       <c r="J34">
-        <v>4176</v>
+        <v>2822</v>
       </c>
       <c r="K34">
-        <v>3.75</v>
+        <v>4.63</v>
       </c>
       <c r="L34" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M34">
         <f>ROUND(3.14*(B34/2)^2,1)</f>
-        <v>49062.5</v>
+        <v>70650</v>
       </c>
       <c r="N34">
         <f>ROUND(3.14*(B34*E34/2)^2,1)</f>
-        <v>4415.6000000000004</v>
+        <v>17662.5</v>
       </c>
       <c r="O34">
-        <f>ROUND(SQRT((M34-N34)/3.14)*2,1)</f>
-        <v>238.5</v>
+        <f t="shared" ref="O34" si="54">ROUND(SQRT((M34-N34)/3.14)*2,1)</f>
+        <v>259.8</v>
       </c>
       <c r="P34">
         <f>ROUND(C34/B34,2)</f>
+        <v>5.36</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" ref="Q34" si="55">ROUND(K34/(C34/206),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34" si="56">2*Q34</f>
+        <v>1.18</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" ref="S34" si="57">3*Q34</f>
+        <v>1.77</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" ref="T34" si="58">4*Q34</f>
+        <v>2.36</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" ref="U34" si="59">ROUND(O34^2*Q34^2*L34,1)</f>
+        <v>17621.5</v>
+      </c>
+      <c r="V34" s="8">
+        <f t="shared" ref="V34" si="60">ROUND(O34^2*R34^2*L34,1)</f>
+        <v>70486.100000000006</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" ref="W34" si="61">ROUND(O34^2*S34^2*L34,1)</f>
+        <v>158593.79999999999</v>
+      </c>
+      <c r="X34" s="7">
+        <f t="shared" ref="X34" si="62">ROUND(O34^2*T34^2*L34,1)</f>
+        <v>281944.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>250</v>
+      </c>
+      <c r="C36">
+        <v>1250</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>6248</v>
+      </c>
+      <c r="J36">
+        <v>4176</v>
+      </c>
+      <c r="K36">
+        <v>3.75</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M36">
+        <f>ROUND(3.14*(B36/2)^2,1)</f>
+        <v>49062.5</v>
+      </c>
+      <c r="N36">
+        <f>ROUND(3.14*(B36*E36/2)^2,1)</f>
+        <v>4415.6000000000004</v>
+      </c>
+      <c r="O36">
+        <f>ROUND(SQRT((M36-N36)/3.14)*2,1)</f>
+        <v>238.5</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(C36/B36,2)</f>
         <v>5</v>
       </c>
-      <c r="Q34" s="3">
-        <f>ROUND(K34/(C34/206),2)</f>
+      <c r="Q36" s="6">
+        <f>ROUND(K36/(C36/206),2)</f>
         <v>0.62</v>
       </c>
-      <c r="R34" s="4">
-        <f>2*Q34</f>
+      <c r="R36" s="4">
+        <f>2*Q36</f>
         <v>1.24</v>
       </c>
-      <c r="S34" s="4">
-        <f>3*Q34</f>
+      <c r="S36" s="4">
+        <f>3*Q36</f>
         <v>1.8599999999999999</v>
       </c>
-      <c r="T34" s="6">
-        <f>4*Q34</f>
+      <c r="T36" s="6">
+        <f>4*Q36</f>
         <v>2.48</v>
       </c>
-      <c r="U34" s="7">
-        <f>ROUND(O34^2*Q34^2*L34,1)</f>
+      <c r="U36" s="7">
+        <f>ROUND(O36^2*Q36^2*L36,1)</f>
         <v>17492.400000000001</v>
       </c>
-      <c r="V34" s="8">
-        <f>ROUND(O34^2*R34^2*L34,1)</f>
+      <c r="V36" s="8">
+        <f>ROUND(O36^2*R36^2*L36,1)</f>
         <v>69969.7</v>
       </c>
-      <c r="W34" s="8">
-        <f>ROUND(O34^2*S34^2*L34,1)</f>
+      <c r="W36" s="8">
+        <f>ROUND(O36^2*S36^2*L36,1)</f>
         <v>157431.9</v>
       </c>
-      <c r="X34" s="8">
-        <f>ROUND(O34^2*T34^2*L34,1)</f>
+      <c r="X36" s="8">
+        <f>ROUND(O36^2*T36^2*L36,1)</f>
         <v>279878.90000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>250</v>
-      </c>
-      <c r="C35">
-        <v>1000</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
-      </c>
-      <c r="I35">
-        <v>6248</v>
-      </c>
-      <c r="J35">
-        <v>4176</v>
-      </c>
-      <c r="K35">
-        <v>3.75</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M35">
-        <f>ROUND(3.14*(B35/2)^2,1)</f>
-        <v>49062.5</v>
-      </c>
-      <c r="N35">
-        <f>ROUND(3.14*(B35*E35/2)^2,1)</f>
-        <v>6010.2</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ref="O35" si="63">ROUND(SQRT((M35-N35)/3.14)*2,1)</f>
-        <v>234.2</v>
-      </c>
-      <c r="P35">
-        <f>ROUND(C35/B35,2)</f>
-        <v>4</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" ref="Q35" si="64">ROUND(K35/(C35/206),2)</f>
-        <v>0.77</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" ref="R35" si="65">2*Q35</f>
-        <v>1.54</v>
-      </c>
-      <c r="S35" s="14">
-        <f t="shared" ref="S35" si="66">3*Q35</f>
-        <v>2.31</v>
-      </c>
-      <c r="T35" s="3">
-        <f t="shared" ref="T35" si="67">4*Q35</f>
-        <v>3.08</v>
-      </c>
-      <c r="U35" s="15">
-        <f t="shared" ref="U35" si="68">ROUND(O35^2*Q35^2*L35,1)</f>
-        <v>26016.3</v>
-      </c>
-      <c r="V35" s="8">
-        <f t="shared" ref="V35" si="69">ROUND(O35^2*R35^2*L35,1)</f>
-        <v>104065.1</v>
-      </c>
-      <c r="W35" s="8">
-        <f t="shared" ref="W35" si="70">ROUND(O35^2*S35^2*L35,1)</f>
-        <v>234146.5</v>
-      </c>
-      <c r="X35" s="7">
-        <f t="shared" ref="X35" si="71">ROUND(O35^2*T35^2*L35,1)</f>
-        <v>416260.5</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -2980,9 +3053,9 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
+        <v>0.35</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G37" t="s">
@@ -3005,147 +3078,234 @@
       </c>
       <c r="M37">
         <f>ROUND(3.14*(B37/2)^2,1)</f>
-        <v>12265.6</v>
+        <v>49062.5</v>
       </c>
       <c r="N37">
         <f>ROUND(3.14*(B37*E37/2)^2,1)</f>
-        <v>0</v>
+        <v>6010.2</v>
       </c>
       <c r="O37">
-        <f>ROUND(SQRT((M37-N37)/3.14)*2,1)</f>
-        <v>125</v>
+        <f t="shared" ref="O37" si="63">ROUND(SQRT((M37-N37)/3.14)*2,1)</f>
+        <v>234.2</v>
       </c>
       <c r="P37">
         <f>ROUND(C37/B37,2)</f>
+        <v>4</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" ref="Q37" si="64">ROUND(K37/(C37/206),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" ref="R37" si="65">2*Q37</f>
+        <v>1.54</v>
+      </c>
+      <c r="S37" s="14">
+        <f t="shared" ref="S37" si="66">3*Q37</f>
+        <v>2.31</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" ref="T37" si="67">4*Q37</f>
+        <v>3.08</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" ref="U37" si="68">ROUND(O37^2*Q37^2*L37,1)</f>
+        <v>26016.3</v>
+      </c>
+      <c r="V37" s="8">
+        <f t="shared" ref="V37" si="69">ROUND(O37^2*R37^2*L37,1)</f>
+        <v>104065.1</v>
+      </c>
+      <c r="W37" s="8">
+        <f t="shared" ref="W37" si="70">ROUND(O37^2*S37^2*L37,1)</f>
+        <v>234146.5</v>
+      </c>
+      <c r="X37" s="7">
+        <f t="shared" ref="X37" si="71">ROUND(O37^2*T37^2*L37,1)</f>
+        <v>416260.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>6248</v>
+      </c>
+      <c r="J39">
+        <v>4176</v>
+      </c>
+      <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M39">
+        <f>ROUND(3.14*(B39/2)^2,1)</f>
+        <v>12265.6</v>
+      </c>
+      <c r="N39">
+        <f>ROUND(3.14*(B39*E39/2)^2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>ROUND(SQRT((M39-N39)/3.14)*2,1)</f>
+        <v>125</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(C39/B39,2)</f>
         <v>8</v>
       </c>
-      <c r="Q37" s="10">
-        <f>ROUND(K37/(C37/206),2)</f>
+      <c r="Q39" s="10">
+        <f>ROUND(K39/(C39/206),2)</f>
         <v>0.77</v>
       </c>
-      <c r="R37" s="4">
-        <f>2*Q37</f>
+      <c r="R39" s="4">
+        <f>2*Q39</f>
         <v>1.54</v>
       </c>
-      <c r="S37" s="6">
-        <f>3*Q37</f>
+      <c r="S39" s="6">
+        <f>3*Q39</f>
         <v>2.31</v>
       </c>
-      <c r="T37" s="3">
-        <f>4*Q37</f>
+      <c r="T39" s="3">
+        <f>4*Q39</f>
         <v>3.08</v>
       </c>
-      <c r="U37" s="7">
-        <f>ROUND(O37^2*Q37^2*L37,1)</f>
+      <c r="U39" s="7">
+        <f>ROUND(O39^2*Q39^2*L39,1)</f>
         <v>7411.3</v>
       </c>
-      <c r="V37" s="8">
-        <f>ROUND(O37^2*R37^2*L37,1)</f>
+      <c r="V39" s="8">
+        <f>ROUND(O39^2*R39^2*L39,1)</f>
         <v>29645</v>
       </c>
-      <c r="W37" s="7">
-        <f>ROUND(O37^2*S37^2*L37,1)</f>
+      <c r="W39" s="7">
+        <f>ROUND(O39^2*S39^2*L39,1)</f>
         <v>66701.3</v>
       </c>
-      <c r="X37" s="7">
-        <f>ROUND(O37^2*T37^2*L37,1)</f>
+      <c r="X39" s="7">
+        <f>ROUND(O39^2*T39^2*L39,1)</f>
         <v>118580</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>125</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>800</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>0.8</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>23</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <v>16</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>6248</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>4176</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>3.75</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L40" s="2">
         <v>0.8</v>
       </c>
-      <c r="M38">
-        <f>ROUND(3.14*(B38/2)^2,1)</f>
+      <c r="M40">
+        <f>ROUND(3.14*(B40/2)^2,1)</f>
         <v>12265.6</v>
       </c>
-      <c r="N38">
-        <f>ROUND(3.14*(B38*E38/2)^2,1)</f>
+      <c r="N40">
+        <f>ROUND(3.14*(B40*E40/2)^2,1)</f>
         <v>0</v>
       </c>
-      <c r="O38">
-        <f t="shared" ref="O38" si="72">ROUND(SQRT((M38-N38)/3.14)*2,1)</f>
+      <c r="O40">
+        <f t="shared" ref="O40" si="72">ROUND(SQRT((M40-N40)/3.14)*2,1)</f>
         <v>125</v>
       </c>
-      <c r="P38">
-        <f>ROUND(C38/B38,2)</f>
+      <c r="P40">
+        <f>ROUND(C40/B40,2)</f>
         <v>6.4</v>
       </c>
-      <c r="Q38" s="4">
-        <f t="shared" ref="Q38" si="73">ROUND(K38/(C38/206),2)</f>
+      <c r="Q40" s="4">
+        <f t="shared" ref="Q40" si="73">ROUND(K40/(C40/206),2)</f>
         <v>0.97</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" ref="R38" si="74">2*Q38</f>
+      <c r="R40" s="4">
+        <f t="shared" ref="R40" si="74">2*Q40</f>
         <v>1.94</v>
       </c>
-      <c r="S38" s="13">
-        <f t="shared" ref="S38" si="75">3*Q38</f>
+      <c r="S40" s="13">
+        <f t="shared" ref="S40" si="75">3*Q40</f>
         <v>2.91</v>
       </c>
-      <c r="T38" s="3">
-        <f t="shared" ref="T38" si="76">4*Q38</f>
+      <c r="T40" s="3">
+        <f t="shared" ref="T40" si="76">4*Q40</f>
         <v>3.88</v>
       </c>
-      <c r="U38" s="8">
-        <f t="shared" ref="U38" si="77">ROUND(O38^2*Q38^2*L38,1)</f>
+      <c r="U40" s="8">
+        <f t="shared" ref="U40" si="77">ROUND(O40^2*Q40^2*L40,1)</f>
         <v>11761.3</v>
       </c>
-      <c r="V38" s="8">
-        <f t="shared" ref="V38" si="78">ROUND(O38^2*R38^2*L38,1)</f>
+      <c r="V40" s="8">
+        <f t="shared" ref="V40" si="78">ROUND(O40^2*R40^2*L40,1)</f>
         <v>47045</v>
       </c>
-      <c r="W38" s="7">
-        <f t="shared" ref="W38" si="79">ROUND(O38^2*S38^2*L38,1)</f>
+      <c r="W40" s="7">
+        <f t="shared" ref="W40" si="79">ROUND(O40^2*S40^2*L40,1)</f>
         <v>105851.3</v>
       </c>
-      <c r="X38" s="7">
-        <f t="shared" ref="X38" si="80">ROUND(O38^2*T38^2*L38,1)</f>
+      <c r="X40" s="7">
+        <f t="shared" ref="X40" si="80">ROUND(O40^2*T40^2*L40,1)</f>
         <v>188180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="U3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teleskop-Kamera-Effizienz.xlsx
+++ b/Teleskop-Kamera-Effizienz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WFS\AG-Astro-Praxis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB32BBC-2273-436B-933D-8C030269C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EC35AB-B60B-430A-9F93-2D5DF8EDCD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="0" windowWidth="27525" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="75er RC WFS" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U37" authorId="0" shapeId="0" xr:uid="{1C4C1AAA-D003-48F6-9ED9-9A4D294B3357}">
+    <comment ref="U42" authorId="0" shapeId="0" xr:uid="{1C4C1AAA-D003-48F6-9ED9-9A4D294B3357}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
   <si>
     <t>Teleskop</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Die Tabelle zeigt die Abhängigkeiten von  Teleskop-Größen, Pixelgröße und Binning  auf die Effizenz (was hinten rauskommt) eines Teleskops am Beispiel des 75cm-RCs der WFS und anderen Teleskopen zum Vergleich</t>
+  </si>
+  <si>
+    <t>FLI-PL23042</t>
   </si>
   <si>
     <r>
@@ -251,7 +254,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>U30.</t>
+      <t>U35</t>
     </r>
   </si>
 </sst>
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +762,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -2607,15 +2610,27 @@
         <v>8483712.3000000007</v>
       </c>
     </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C30">
-        <v>2400</v>
+        <v>5600</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2624,85 +2639,85 @@
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30">
         <v>16</v>
       </c>
       <c r="I30">
-        <v>6248</v>
+        <v>2048</v>
       </c>
       <c r="J30">
-        <v>4176</v>
+        <v>2048</v>
       </c>
       <c r="K30">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="L30" s="2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="M30">
         <f>ROUND(3.14*(B30/2)^2,1)</f>
-        <v>70650</v>
+        <v>441562.5</v>
       </c>
       <c r="N30">
         <f>ROUND(3.14*(B30*E30/2)^2,1)</f>
-        <v>17662.5</v>
+        <v>110390.6</v>
       </c>
       <c r="O30">
         <f>ROUND(SQRT((M30-N30)/3.14)*2,1)</f>
-        <v>259.8</v>
+        <v>649.5</v>
       </c>
       <c r="P30">
         <f>ROUND(C30/B30,2)</f>
-        <v>8</v>
+        <v>7.47</v>
       </c>
       <c r="Q30" s="3">
         <f>ROUND(K30/(C30/206),2)</f>
-        <v>0.32</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R30" s="4">
         <f>2*Q30</f>
-        <v>0.64</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S30" s="4">
         <f>3*Q30</f>
-        <v>0.96</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="T30" s="4">
         <f>4*Q30</f>
-        <v>1.28</v>
-      </c>
-      <c r="U30" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U30" s="7">
         <f>ROUND(O30^2*Q30^2*L30,1)</f>
-        <v>5529.3</v>
+        <v>121229.2</v>
       </c>
       <c r="V30" s="8">
         <f>ROUND(O30^2*R30^2*L30,1)</f>
-        <v>22117.1</v>
+        <v>484916.9</v>
       </c>
       <c r="W30" s="8">
         <f>ROUND(O30^2*S30^2*L30,1)</f>
-        <v>49763.5</v>
+        <v>1091062.8999999999</v>
       </c>
       <c r="X30" s="8">
         <f>ROUND(O30^2*T30^2*L30,1)</f>
-        <v>88468.4</v>
+        <v>1939667.4</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C31">
         <f>C30*D31</f>
-        <v>1608</v>
+        <v>3752</v>
       </c>
       <c r="D31">
         <v>0.67</v>
@@ -2711,263 +2726,351 @@
         <v>0.5</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31">
         <v>16</v>
       </c>
       <c r="I31">
-        <v>6248</v>
+        <v>2048</v>
       </c>
       <c r="J31">
-        <v>4176</v>
+        <v>2048</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="L31" s="2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="M31">
         <f>ROUND(3.14*(B31/2)^2,1)</f>
-        <v>70650</v>
+        <v>441562.5</v>
       </c>
       <c r="N31">
         <f>ROUND(3.14*(B31*E31/2)^2,1)</f>
-        <v>17662.5</v>
+        <v>110390.6</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31" si="45">ROUND(SQRT((M31-N31)/3.14)*2,1)</f>
-        <v>259.8</v>
+        <f t="shared" ref="O31:O33" si="45">ROUND(SQRT((M31-N31)/3.14)*2,1)</f>
+        <v>649.5</v>
       </c>
       <c r="P31">
         <f>ROUND(C31/B31,2)</f>
-        <v>5.36</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" ref="Q31" si="46">ROUND(K31/(C31/206),2)</f>
-        <v>0.48</v>
+        <v>5</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" ref="Q31:Q33" si="46">ROUND(K31/(C31/206),2)</f>
+        <v>0.82</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" ref="R31" si="47">2*Q31</f>
-        <v>0.96</v>
+        <f t="shared" ref="R31:R33" si="47">2*Q31</f>
+        <v>1.64</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31" si="48">3*Q31</f>
-        <v>1.44</v>
+        <f t="shared" ref="S31:S33" si="48">3*Q31</f>
+        <v>2.46</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" ref="T31" si="49">4*Q31</f>
-        <v>1.92</v>
-      </c>
-      <c r="U31" s="7">
-        <f t="shared" ref="U31" si="50">ROUND(O31^2*Q31^2*L31,1)</f>
-        <v>12440.9</v>
+        <f t="shared" ref="T31:T33" si="49">4*Q31</f>
+        <v>3.28</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" ref="U31:U33" si="50">ROUND(O31^2*Q31^2*L31,1)</f>
+        <v>269469.5</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" ref="V31" si="51">ROUND(O31^2*R31^2*L31,1)</f>
-        <v>49763.5</v>
+        <f t="shared" ref="V31:V33" si="51">ROUND(O31^2*R31^2*L31,1)</f>
+        <v>1077878</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" ref="W31" si="52">ROUND(O31^2*S31^2*L31,1)</f>
-        <v>111967.8</v>
+        <f t="shared" ref="W31:W33" si="52">ROUND(O31^2*S31^2*L31,1)</f>
+        <v>2425225.5</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" ref="X31" si="53">ROUND(O31^2*T31^2*L31,1)</f>
-        <v>199053.9</v>
+        <f t="shared" ref="X31:X33" si="53">ROUND(O31^2*T31^2*L31,1)</f>
+        <v>4311512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>750</v>
+      </c>
+      <c r="C32">
+        <f>C30*D32</f>
+        <v>2800</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>2048</v>
+      </c>
+      <c r="J32">
+        <v>2048</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="M32">
+        <f>ROUND(3.14*(B32/2)^2,1)</f>
+        <v>441562.5</v>
+      </c>
+      <c r="N32">
+        <f>ROUND(3.14*(B32*E32/2)^2,1)</f>
+        <v>110390.6</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="45"/>
+        <v>649.5</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(C32/B32,2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="46"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="47"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S32" s="13">
+        <f t="shared" si="48"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="49"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="50"/>
+        <v>484916.9</v>
+      </c>
+      <c r="V32" s="8">
+        <f t="shared" si="51"/>
+        <v>1939667.4</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="52"/>
+        <v>4364251.8</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="shared" si="53"/>
+        <v>7758669.7999999998</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="C33">
-        <v>2400</v>
+        <f>C30*D33</f>
+        <v>1848</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E33" s="2">
         <v>0.5</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>4122</v>
+        <v>2048</v>
       </c>
       <c r="J33">
-        <v>2822</v>
+        <v>2048</v>
       </c>
       <c r="K33">
-        <v>4.63</v>
+        <v>15</v>
       </c>
       <c r="L33" s="2">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="M33">
         <f>ROUND(3.14*(B33/2)^2,1)</f>
-        <v>70650</v>
+        <v>441562.5</v>
       </c>
       <c r="N33">
         <f>ROUND(3.14*(B33*E33/2)^2,1)</f>
-        <v>17662.5</v>
+        <v>110390.6</v>
       </c>
       <c r="O33">
-        <f>ROUND(SQRT((M33-N33)/3.14)*2,1)</f>
-        <v>259.8</v>
+        <f t="shared" si="45"/>
+        <v>649.5</v>
       </c>
       <c r="P33">
         <f>ROUND(C33/B33,2)</f>
+        <v>2.46</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="46"/>
+        <v>1.67</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="47"/>
+        <v>3.34</v>
+      </c>
+      <c r="S33" s="11">
+        <f t="shared" si="48"/>
+        <v>5.01</v>
+      </c>
+      <c r="T33" s="12">
+        <f t="shared" si="49"/>
+        <v>6.68</v>
+      </c>
+      <c r="U33" s="8">
+        <f t="shared" si="50"/>
+        <v>1117673.3</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="51"/>
+        <v>4470693</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="52"/>
+        <v>10059059.300000001</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="53"/>
+        <v>17882772.100000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>2400</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>6248</v>
+      </c>
+      <c r="J35">
+        <v>4176</v>
+      </c>
+      <c r="K35">
+        <v>3.75</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M35">
+        <f>ROUND(3.14*(B35/2)^2,1)</f>
+        <v>70650</v>
+      </c>
+      <c r="N35">
+        <f>ROUND(3.14*(B35*E35/2)^2,1)</f>
+        <v>17662.5</v>
+      </c>
+      <c r="O35">
+        <f>ROUND(SQRT((M35-N35)/3.14)*2,1)</f>
+        <v>259.8</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(C35/B35,2)</f>
         <v>8</v>
       </c>
-      <c r="Q33" s="3">
-        <f>ROUND(K33/(C33/206),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="R33" s="4">
-        <f>2*Q33</f>
-        <v>0.8</v>
-      </c>
-      <c r="S33" s="4">
-        <f>3*Q33</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="T33" s="4">
-        <f>4*Q33</f>
-        <v>1.6</v>
-      </c>
-      <c r="U33" s="7">
-        <f>ROUND(O33^2*Q33^2*L33,1)</f>
-        <v>8099.5</v>
-      </c>
-      <c r="V33" s="8">
-        <f>ROUND(O33^2*R33^2*L33,1)</f>
-        <v>32398.1</v>
-      </c>
-      <c r="W33" s="8">
-        <f>ROUND(O33^2*S33^2*L33,1)</f>
-        <v>72895.7</v>
-      </c>
-      <c r="X33" s="8">
-        <f>ROUND(O33^2*T33^2*L33,1)</f>
-        <v>129592.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>300</v>
-      </c>
-      <c r="C34">
-        <f>C33*D34</f>
-        <v>1608</v>
-      </c>
-      <c r="D34">
-        <v>0.67</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34">
-        <v>14</v>
-      </c>
-      <c r="I34">
-        <v>4122</v>
-      </c>
-      <c r="J34">
-        <v>2822</v>
-      </c>
-      <c r="K34">
-        <v>4.63</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="M34">
-        <f>ROUND(3.14*(B34/2)^2,1)</f>
-        <v>70650</v>
-      </c>
-      <c r="N34">
-        <f>ROUND(3.14*(B34*E34/2)^2,1)</f>
-        <v>17662.5</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34" si="54">ROUND(SQRT((M34-N34)/3.14)*2,1)</f>
-        <v>259.8</v>
-      </c>
-      <c r="P34">
-        <f>ROUND(C34/B34,2)</f>
-        <v>5.36</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" ref="Q34" si="55">ROUND(K34/(C34/206),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34" si="56">2*Q34</f>
-        <v>1.18</v>
-      </c>
-      <c r="S34" s="5">
-        <f t="shared" ref="S34" si="57">3*Q34</f>
-        <v>1.77</v>
-      </c>
-      <c r="T34" s="3">
-        <f t="shared" ref="T34" si="58">4*Q34</f>
-        <v>2.36</v>
-      </c>
-      <c r="U34" s="7">
-        <f t="shared" ref="U34" si="59">ROUND(O34^2*Q34^2*L34,1)</f>
-        <v>17621.5</v>
-      </c>
-      <c r="V34" s="8">
-        <f t="shared" ref="V34" si="60">ROUND(O34^2*R34^2*L34,1)</f>
-        <v>70486.100000000006</v>
-      </c>
-      <c r="W34" s="8">
-        <f t="shared" ref="W34" si="61">ROUND(O34^2*S34^2*L34,1)</f>
-        <v>158593.79999999999</v>
-      </c>
-      <c r="X34" s="7">
-        <f t="shared" ref="X34" si="62">ROUND(O34^2*T34^2*L34,1)</f>
-        <v>281944.5</v>
+      <c r="Q35" s="3">
+        <f>ROUND(K35/(C35/206),2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="R35" s="4">
+        <f>2*Q35</f>
+        <v>0.64</v>
+      </c>
+      <c r="S35" s="4">
+        <f>3*Q35</f>
+        <v>0.96</v>
+      </c>
+      <c r="T35" s="4">
+        <f>4*Q35</f>
+        <v>1.28</v>
+      </c>
+      <c r="U35" s="15">
+        <f>ROUND(O35^2*Q35^2*L35,1)</f>
+        <v>5529.3</v>
+      </c>
+      <c r="V35" s="8">
+        <f>ROUND(O35^2*R35^2*L35,1)</f>
+        <v>22117.1</v>
+      </c>
+      <c r="W35" s="8">
+        <f>ROUND(O35^2*S35^2*L35,1)</f>
+        <v>49763.5</v>
+      </c>
+      <c r="X35" s="8">
+        <f>ROUND(O35^2*T35^2*L35,1)</f>
+        <v>88468.4</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C36">
-        <v>1250</v>
+        <f>C35*D36</f>
+        <v>1608</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E36" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
@@ -2992,308 +3095,567 @@
       </c>
       <c r="M36">
         <f>ROUND(3.14*(B36/2)^2,1)</f>
-        <v>49062.5</v>
+        <v>70650</v>
       </c>
       <c r="N36">
         <f>ROUND(3.14*(B36*E36/2)^2,1)</f>
-        <v>4415.6000000000004</v>
+        <v>17662.5</v>
       </c>
       <c r="O36">
-        <f>ROUND(SQRT((M36-N36)/3.14)*2,1)</f>
-        <v>238.5</v>
+        <f t="shared" ref="O36" si="54">ROUND(SQRT((M36-N36)/3.14)*2,1)</f>
+        <v>259.8</v>
       </c>
       <c r="P36">
         <f>ROUND(C36/B36,2)</f>
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="Q36" s="6">
-        <f>ROUND(K36/(C36/206),2)</f>
-        <v>0.62</v>
+        <f t="shared" ref="Q36" si="55">ROUND(K36/(C36/206),2)</f>
+        <v>0.48</v>
       </c>
       <c r="R36" s="4">
-        <f>2*Q36</f>
-        <v>1.24</v>
-      </c>
-      <c r="S36" s="4">
-        <f>3*Q36</f>
-        <v>1.8599999999999999</v>
-      </c>
-      <c r="T36" s="6">
-        <f>4*Q36</f>
-        <v>2.48</v>
+        <f t="shared" ref="R36" si="56">2*Q36</f>
+        <v>0.96</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" ref="S36" si="57">3*Q36</f>
+        <v>1.44</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" ref="T36" si="58">4*Q36</f>
+        <v>1.92</v>
       </c>
       <c r="U36" s="7">
-        <f>ROUND(O36^2*Q36^2*L36,1)</f>
-        <v>17492.400000000001</v>
+        <f t="shared" ref="U36" si="59">ROUND(O36^2*Q36^2*L36,1)</f>
+        <v>12440.9</v>
       </c>
       <c r="V36" s="8">
-        <f>ROUND(O36^2*R36^2*L36,1)</f>
-        <v>69969.7</v>
+        <f t="shared" ref="V36" si="60">ROUND(O36^2*R36^2*L36,1)</f>
+        <v>49763.5</v>
       </c>
       <c r="W36" s="8">
-        <f>ROUND(O36^2*S36^2*L36,1)</f>
-        <v>157431.9</v>
-      </c>
-      <c r="X36" s="8">
-        <f>ROUND(O36^2*T36^2*L36,1)</f>
-        <v>279878.90000000002</v>
+        <f t="shared" ref="W36" si="61">ROUND(O36^2*S36^2*L36,1)</f>
+        <v>111967.8</v>
+      </c>
+      <c r="X36" s="7">
+        <f t="shared" ref="X36" si="62">ROUND(O36^2*T36^2*L36,1)</f>
+        <v>199053.9</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>250</v>
-      </c>
-      <c r="C37">
-        <v>1000</v>
-      </c>
-      <c r="D37">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>300</v>
+      </c>
+      <c r="C38">
+        <v>2400</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
         <v>24</v>
       </c>
-      <c r="H37">
-        <v>16</v>
-      </c>
-      <c r="I37">
-        <v>6248</v>
-      </c>
-      <c r="J37">
-        <v>4176</v>
-      </c>
-      <c r="K37">
-        <v>3.75</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>4122</v>
+      </c>
+      <c r="J38">
+        <v>2822</v>
+      </c>
+      <c r="K38">
+        <v>4.63</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M38">
+        <f>ROUND(3.14*(B38/2)^2,1)</f>
+        <v>70650</v>
+      </c>
+      <c r="N38">
+        <f>ROUND(3.14*(B38*E38/2)^2,1)</f>
+        <v>17662.5</v>
+      </c>
+      <c r="O38">
+        <f>ROUND(SQRT((M38-N38)/3.14)*2,1)</f>
+        <v>259.8</v>
+      </c>
+      <c r="P38">
+        <f>ROUND(C38/B38,2)</f>
+        <v>8</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>ROUND(K38/(C38/206),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="R38" s="4">
+        <f>2*Q38</f>
         <v>0.8</v>
       </c>
-      <c r="M37">
-        <f>ROUND(3.14*(B37/2)^2,1)</f>
-        <v>49062.5</v>
-      </c>
-      <c r="N37">
-        <f>ROUND(3.14*(B37*E37/2)^2,1)</f>
-        <v>6010.2</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ref="O37" si="63">ROUND(SQRT((M37-N37)/3.14)*2,1)</f>
-        <v>234.2</v>
-      </c>
-      <c r="P37">
-        <f>ROUND(C37/B37,2)</f>
-        <v>4</v>
-      </c>
-      <c r="Q37" s="4">
-        <f t="shared" ref="Q37" si="64">ROUND(K37/(C37/206),2)</f>
-        <v>0.77</v>
-      </c>
-      <c r="R37" s="4">
-        <f t="shared" ref="R37" si="65">2*Q37</f>
-        <v>1.54</v>
-      </c>
-      <c r="S37" s="14">
-        <f t="shared" ref="S37" si="66">3*Q37</f>
-        <v>2.31</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" ref="T37" si="67">4*Q37</f>
-        <v>3.08</v>
-      </c>
-      <c r="U37" s="15">
-        <f t="shared" ref="U37" si="68">ROUND(O37^2*Q37^2*L37,1)</f>
-        <v>26016.3</v>
-      </c>
-      <c r="V37" s="8">
-        <f t="shared" ref="V37" si="69">ROUND(O37^2*R37^2*L37,1)</f>
-        <v>104065.1</v>
-      </c>
-      <c r="W37" s="8">
-        <f t="shared" ref="W37" si="70">ROUND(O37^2*S37^2*L37,1)</f>
-        <v>234146.5</v>
-      </c>
-      <c r="X37" s="7">
-        <f t="shared" ref="X37" si="71">ROUND(O37^2*T37^2*L37,1)</f>
-        <v>416260.5</v>
+      <c r="S38" s="4">
+        <f>3*Q38</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="T38" s="4">
+        <f>4*Q38</f>
+        <v>1.6</v>
+      </c>
+      <c r="U38" s="7">
+        <f>ROUND(O38^2*Q38^2*L38,1)</f>
+        <v>8099.5</v>
+      </c>
+      <c r="V38" s="8">
+        <f>ROUND(O38^2*R38^2*L38,1)</f>
+        <v>32398.1</v>
+      </c>
+      <c r="W38" s="8">
+        <f>ROUND(O38^2*S38^2*L38,1)</f>
+        <v>72895.7</v>
+      </c>
+      <c r="X38" s="8">
+        <f>ROUND(O38^2*T38^2*L38,1)</f>
+        <v>129592.4</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <f>C38*D39</f>
+        <v>1608</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39">
-        <v>6248</v>
+        <v>4122</v>
       </c>
       <c r="J39">
-        <v>4176</v>
+        <v>2822</v>
       </c>
       <c r="K39">
-        <v>3.75</v>
+        <v>4.63</v>
       </c>
       <c r="L39" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M39">
         <f>ROUND(3.14*(B39/2)^2,1)</f>
-        <v>12265.6</v>
+        <v>70650</v>
       </c>
       <c r="N39">
         <f>ROUND(3.14*(B39*E39/2)^2,1)</f>
-        <v>0</v>
+        <v>17662.5</v>
       </c>
       <c r="O39">
-        <f>ROUND(SQRT((M39-N39)/3.14)*2,1)</f>
-        <v>125</v>
+        <f t="shared" ref="O39" si="63">ROUND(SQRT((M39-N39)/3.14)*2,1)</f>
+        <v>259.8</v>
       </c>
       <c r="P39">
         <f>ROUND(C39/B39,2)</f>
+        <v>5.36</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" ref="Q39" si="64">ROUND(K39/(C39/206),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" ref="R39" si="65">2*Q39</f>
+        <v>1.18</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" ref="S39" si="66">3*Q39</f>
+        <v>1.77</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" ref="T39" si="67">4*Q39</f>
+        <v>2.36</v>
+      </c>
+      <c r="U39" s="7">
+        <f t="shared" ref="U39" si="68">ROUND(O39^2*Q39^2*L39,1)</f>
+        <v>17621.5</v>
+      </c>
+      <c r="V39" s="8">
+        <f t="shared" ref="V39" si="69">ROUND(O39^2*R39^2*L39,1)</f>
+        <v>70486.100000000006</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" ref="W39" si="70">ROUND(O39^2*S39^2*L39,1)</f>
+        <v>158593.79999999999</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" ref="X39" si="71">ROUND(O39^2*T39^2*L39,1)</f>
+        <v>281944.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>250</v>
+      </c>
+      <c r="C41">
+        <v>1250</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>6248</v>
+      </c>
+      <c r="J41">
+        <v>4176</v>
+      </c>
+      <c r="K41">
+        <v>3.75</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M41">
+        <f>ROUND(3.14*(B41/2)^2,1)</f>
+        <v>49062.5</v>
+      </c>
+      <c r="N41">
+        <f>ROUND(3.14*(B41*E41/2)^2,1)</f>
+        <v>4415.6000000000004</v>
+      </c>
+      <c r="O41">
+        <f>ROUND(SQRT((M41-N41)/3.14)*2,1)</f>
+        <v>238.5</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(C41/B41,2)</f>
+        <v>5</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>ROUND(K41/(C41/206),2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="R41" s="4">
+        <f>2*Q41</f>
+        <v>1.24</v>
+      </c>
+      <c r="S41" s="4">
+        <f>3*Q41</f>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="T41" s="6">
+        <f>4*Q41</f>
+        <v>2.48</v>
+      </c>
+      <c r="U41" s="7">
+        <f>ROUND(O41^2*Q41^2*L41,1)</f>
+        <v>17492.400000000001</v>
+      </c>
+      <c r="V41" s="8">
+        <f>ROUND(O41^2*R41^2*L41,1)</f>
+        <v>69969.7</v>
+      </c>
+      <c r="W41" s="8">
+        <f>ROUND(O41^2*S41^2*L41,1)</f>
+        <v>157431.9</v>
+      </c>
+      <c r="X41" s="8">
+        <f>ROUND(O41^2*T41^2*L41,1)</f>
+        <v>279878.90000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>250</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>6248</v>
+      </c>
+      <c r="J42">
+        <v>4176</v>
+      </c>
+      <c r="K42">
+        <v>3.75</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M42">
+        <f>ROUND(3.14*(B42/2)^2,1)</f>
+        <v>49062.5</v>
+      </c>
+      <c r="N42">
+        <f>ROUND(3.14*(B42*E42/2)^2,1)</f>
+        <v>6010.2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42" si="72">ROUND(SQRT((M42-N42)/3.14)*2,1)</f>
+        <v>234.2</v>
+      </c>
+      <c r="P42">
+        <f>ROUND(C42/B42,2)</f>
+        <v>4</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" ref="Q42" si="73">ROUND(K42/(C42/206),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" ref="R42" si="74">2*Q42</f>
+        <v>1.54</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" ref="S42" si="75">3*Q42</f>
+        <v>2.31</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" ref="T42" si="76">4*Q42</f>
+        <v>3.08</v>
+      </c>
+      <c r="U42" s="15">
+        <f t="shared" ref="U42" si="77">ROUND(O42^2*Q42^2*L42,1)</f>
+        <v>26016.3</v>
+      </c>
+      <c r="V42" s="8">
+        <f t="shared" ref="V42" si="78">ROUND(O42^2*R42^2*L42,1)</f>
+        <v>104065.1</v>
+      </c>
+      <c r="W42" s="8">
+        <f t="shared" ref="W42" si="79">ROUND(O42^2*S42^2*L42,1)</f>
+        <v>234146.5</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" ref="X42" si="80">ROUND(O42^2*T42^2*L42,1)</f>
+        <v>416260.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>125</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>6248</v>
+      </c>
+      <c r="J44">
+        <v>4176</v>
+      </c>
+      <c r="K44">
+        <v>3.75</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M44">
+        <f>ROUND(3.14*(B44/2)^2,1)</f>
+        <v>12265.6</v>
+      </c>
+      <c r="N44">
+        <f>ROUND(3.14*(B44*E44/2)^2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f>ROUND(SQRT((M44-N44)/3.14)*2,1)</f>
+        <v>125</v>
+      </c>
+      <c r="P44">
+        <f>ROUND(C44/B44,2)</f>
         <v>8</v>
       </c>
-      <c r="Q39" s="10">
-        <f>ROUND(K39/(C39/206),2)</f>
+      <c r="Q44" s="10">
+        <f>ROUND(K44/(C44/206),2)</f>
         <v>0.77</v>
       </c>
-      <c r="R39" s="4">
-        <f>2*Q39</f>
+      <c r="R44" s="4">
+        <f>2*Q44</f>
         <v>1.54</v>
       </c>
-      <c r="S39" s="6">
-        <f>3*Q39</f>
+      <c r="S44" s="6">
+        <f>3*Q44</f>
         <v>2.31</v>
       </c>
-      <c r="T39" s="3">
-        <f>4*Q39</f>
+      <c r="T44" s="3">
+        <f>4*Q44</f>
         <v>3.08</v>
       </c>
-      <c r="U39" s="7">
-        <f>ROUND(O39^2*Q39^2*L39,1)</f>
+      <c r="U44" s="7">
+        <f>ROUND(O44^2*Q44^2*L44,1)</f>
         <v>7411.3</v>
       </c>
-      <c r="V39" s="8">
-        <f>ROUND(O39^2*R39^2*L39,1)</f>
+      <c r="V44" s="8">
+        <f>ROUND(O44^2*R44^2*L44,1)</f>
         <v>29645</v>
       </c>
-      <c r="W39" s="7">
-        <f>ROUND(O39^2*S39^2*L39,1)</f>
+      <c r="W44" s="7">
+        <f>ROUND(O44^2*S44^2*L44,1)</f>
         <v>66701.3</v>
       </c>
-      <c r="X39" s="7">
-        <f>ROUND(O39^2*T39^2*L39,1)</f>
+      <c r="X44" s="7">
+        <f>ROUND(O44^2*T44^2*L44,1)</f>
         <v>118580</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>125</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>800</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>0.8</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E45" s="2">
         <v>0</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G45" t="s">
         <v>24</v>
       </c>
-      <c r="H40">
+      <c r="H45">
         <v>16</v>
       </c>
-      <c r="I40">
+      <c r="I45">
         <v>6248</v>
       </c>
-      <c r="J40">
+      <c r="J45">
         <v>4176</v>
       </c>
-      <c r="K40">
+      <c r="K45">
         <v>3.75</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L45" s="2">
         <v>0.8</v>
       </c>
-      <c r="M40">
-        <f>ROUND(3.14*(B40/2)^2,1)</f>
+      <c r="M45">
+        <f>ROUND(3.14*(B45/2)^2,1)</f>
         <v>12265.6</v>
       </c>
-      <c r="N40">
-        <f>ROUND(3.14*(B40*E40/2)^2,1)</f>
+      <c r="N45">
+        <f>ROUND(3.14*(B45*E45/2)^2,1)</f>
         <v>0</v>
       </c>
-      <c r="O40">
-        <f t="shared" ref="O40" si="72">ROUND(SQRT((M40-N40)/3.14)*2,1)</f>
+      <c r="O45">
+        <f t="shared" ref="O45" si="81">ROUND(SQRT((M45-N45)/3.14)*2,1)</f>
         <v>125</v>
       </c>
-      <c r="P40">
-        <f>ROUND(C40/B40,2)</f>
+      <c r="P45">
+        <f>ROUND(C45/B45,2)</f>
         <v>6.4</v>
       </c>
-      <c r="Q40" s="4">
-        <f t="shared" ref="Q40" si="73">ROUND(K40/(C40/206),2)</f>
+      <c r="Q45" s="4">
+        <f t="shared" ref="Q45" si="82">ROUND(K45/(C45/206),2)</f>
         <v>0.97</v>
       </c>
-      <c r="R40" s="4">
-        <f t="shared" ref="R40" si="74">2*Q40</f>
+      <c r="R45" s="4">
+        <f t="shared" ref="R45" si="83">2*Q45</f>
         <v>1.94</v>
       </c>
-      <c r="S40" s="13">
-        <f t="shared" ref="S40" si="75">3*Q40</f>
+      <c r="S45" s="13">
+        <f t="shared" ref="S45" si="84">3*Q45</f>
         <v>2.91</v>
       </c>
-      <c r="T40" s="3">
-        <f t="shared" ref="T40" si="76">4*Q40</f>
+      <c r="T45" s="3">
+        <f t="shared" ref="T45" si="85">4*Q45</f>
         <v>3.88</v>
       </c>
-      <c r="U40" s="8">
-        <f t="shared" ref="U40" si="77">ROUND(O40^2*Q40^2*L40,1)</f>
+      <c r="U45" s="8">
+        <f t="shared" ref="U45" si="86">ROUND(O45^2*Q45^2*L45,1)</f>
         <v>11761.3</v>
       </c>
-      <c r="V40" s="8">
-        <f t="shared" ref="V40" si="78">ROUND(O40^2*R40^2*L40,1)</f>
+      <c r="V45" s="8">
+        <f t="shared" ref="V45" si="87">ROUND(O45^2*R45^2*L45,1)</f>
         <v>47045</v>
       </c>
-      <c r="W40" s="7">
-        <f t="shared" ref="W40" si="79">ROUND(O40^2*S40^2*L40,1)</f>
+      <c r="W45" s="7">
+        <f t="shared" ref="W45" si="88">ROUND(O45^2*S45^2*L45,1)</f>
         <v>105851.3</v>
       </c>
-      <c r="X40" s="7">
-        <f t="shared" ref="X40" si="80">ROUND(O40^2*T40^2*L40,1)</f>
+      <c r="X45" s="7">
+        <f t="shared" ref="X45" si="89">ROUND(O45^2*T45^2*L45,1)</f>
         <v>188180</v>
       </c>
     </row>
